--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38DE2E9-A84E-4A7A-B69E-E668B18F376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EEEBB6-D8D0-4FBB-8ABC-9EAED7981798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>De Leener, B., Lévy, S., Dupont, S. M., Fonov, V. S., Stikov, N., Louis Collins, D., Callot, V., &amp; Cohen-Adad, J. (2017). SCT: Spinal Cord Toolbox, an open-source software for processing spinal cord MRI data. NeuroImage, 145, 24–43. https://doi.org/10.1016/j.neuroimage.2016.10.009</t>
+  </si>
+  <si>
+    <t>O’Hare, L., Hird, E., &amp; Whybrow, M. (2021). Steady‐state visual evoked potential responses predict visual discomfort judgements. European Journal of Neuroscience, 54(10), 7575–7598. https://doi.org/10.1111/ejn.15492</t>
   </si>
 </sst>
 </file>
@@ -409,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,6 +472,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EEEBB6-D8D0-4FBB-8ABC-9EAED7981798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526A4721-A941-4CDC-8D1D-3FDB65B2CDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>O’Hare, L., Hird, E., &amp; Whybrow, M. (2021). Steady‐state visual evoked potential responses predict visual discomfort judgements. European Journal of Neuroscience, 54(10), 7575–7598. https://doi.org/10.1111/ejn.15492</t>
+  </si>
+  <si>
+    <t>Brady, S. S., Brubaker, L., Fok, C. S., Gahagan, S., Lewis, C. E., Lewis, J., Lowder, J. L., Nodora, J., Stapleton, A., Palmer, M. H., Prevention of Lower Urinary Tract Symptoms (PLUS) Research Consortium, Mueller, E., Fitzgerald, C. M., Hardacker, C. T., Hebert-Beirne, J., Lavender, M., Shoham, D. A., Burgio, K., Markland, A., … Constantine, M. (2020). Development of Conceptual Models to Guide Public Health Research, Practice, and Policy: Synthesizing Traditional and Contemporary Paradigms. Health Promotion Practice, 21(4), 510–524. https://doi.org/10.1177/1524839919890869</t>
+  </si>
+  <si>
+    <t>Vittersø, A. D., Halicka, M., Buckingham, G., Proulx, M. J., &amp; Bultitude, J. H. (2022). The sensorimotor theory of pathological pain revisited. Neuroscience &amp; Biobehavioral Reviews, 139, 104735. https://doi.org/10.1016/j.neubiorev.2022.104735</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +486,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526A4721-A941-4CDC-8D1D-3FDB65B2CDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8DBF52-B756-4296-8C98-59CFC9CA9D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Vittersø, A. D., Halicka, M., Buckingham, G., Proulx, M. J., &amp; Bultitude, J. H. (2022). The sensorimotor theory of pathological pain revisited. Neuroscience &amp; Biobehavioral Reviews, 139, 104735. https://doi.org/10.1016/j.neubiorev.2022.104735</t>
+  </si>
+  <si>
+    <t>Clauw, D. J. (2014). Fibromyalgia: A Clinical Review. JAMA, 311(15), 1547. https://doi.org/10.1001/jama.2014.3266</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +505,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8DBF52-B756-4296-8C98-59CFC9CA9D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2DD32E-4377-49D2-95EB-7C6C6FFCDEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Clauw, D. J. (2014). Fibromyalgia: A Clinical Review. JAMA, 311(15), 1547. https://doi.org/10.1001/jama.2014.3266</t>
+  </si>
+  <si>
+    <t>Seth, A. K., &amp; Bayne, T. (2022). Theories of consciousness. Nature Reviews Neuroscience, 23(7), 439–452. https://doi.org/10.1038/s41583-022-00587-4</t>
+  </si>
+  <si>
+    <t>The 23andMe Research Team, Heilbron, K., Jensen, M. P., Bandres-Ciga, S., Fontanillas, P., Blauwendraat, C., Nalls, M. A., Singleton, A. B., Smith, G. D., Cannon, P., &amp; Noyce, A. J. (2021). Unhealthy Behaviours and Risk of Parkinson’s Disease: A Mendelian Randomisation Study. Journal of Parkinson’s Disease, 11(4), 1981–1993. https://doi.org/10.3233/JPD-202487</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +519,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2DD32E-4377-49D2-95EB-7C6C6FFCDEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FAD6DF-6F60-4596-9A1C-E0993A80E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="0" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>The 23andMe Research Team, Heilbron, K., Jensen, M. P., Bandres-Ciga, S., Fontanillas, P., Blauwendraat, C., Nalls, M. A., Singleton, A. B., Smith, G. D., Cannon, P., &amp; Noyce, A. J. (2021). Unhealthy Behaviours and Risk of Parkinson’s Disease: A Mendelian Randomisation Study. Journal of Parkinson’s Disease, 11(4), 1981–1993. https://doi.org/10.3233/JPD-202487</t>
+  </si>
+  <si>
+    <t>Birca, A., Carmant, L., Lortie, A., &amp; Lassonde, M. (2006). Interaction between the flash evoked SSVEPs and the spontaneous EEG activity in children and adults. Clinical Neurophysiology, 117(2), 279–288. https://doi.org/10.1016/j.clinph.2005.10.001</t>
+  </si>
+  <si>
+    <t>Burnham, K. P., Anderson, D. R., &amp; Huyvaert, K. P. (2011). AIC model selection and multimodel inference in behavioral ecology: Some background, observations, and comparisons. Behavioral Ecology and Sociobiology, 65(1), 23–35. https://doi.org/10.1007/s00265-010-1029-6</t>
   </si>
 </sst>
 </file>
@@ -109,10 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +544,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FAD6DF-6F60-4596-9A1C-E0993A80E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB6CA15-39B9-4E11-B98A-0FFE882C7069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Burnham, K. P., Anderson, D. R., &amp; Huyvaert, K. P. (2011). AIC model selection and multimodel inference in behavioral ecology: Some background, observations, and comparisons. Behavioral Ecology and Sociobiology, 65(1), 23–35. https://doi.org/10.1007/s00265-010-1029-6</t>
+  </si>
+  <si>
+    <t>Youssef, A. M., Macefield, V. G., &amp; Henderson, L. A. (2016). Cortical influences on brainstem circuitry responsible for conditioned pain modulation in humans: Conditioned Pain Modulation. Human Brain Mapping, 37(7), 2630–2644. https://doi.org/10.1002/hbm.23199</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +563,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB6CA15-39B9-4E11-B98A-0FFE882C7069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0045C5C-4AE4-4D39-8727-ABA08A14B161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Youssef, A. M., Macefield, V. G., &amp; Henderson, L. A. (2016). Cortical influences on brainstem circuitry responsible for conditioned pain modulation in humans: Conditioned Pain Modulation. Human Brain Mapping, 37(7), 2630–2644. https://doi.org/10.1002/hbm.23199</t>
+  </si>
+  <si>
+    <t>Traxler, J., Madden, V. J., Moseley, G. L., &amp; Vlaeyen, J. W. S. (2019). Modulating pain thresholds through classical conditioning. PeerJ, 7, e6486. https://doi.org/10.7717/peerj.6486</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +574,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0045C5C-4AE4-4D39-8727-ABA08A14B161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE477B7-AE68-42C6-B5B6-FE23B03766E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Traxler, J., Madden, V. J., Moseley, G. L., &amp; Vlaeyen, J. W. S. (2019). Modulating pain thresholds through classical conditioning. PeerJ, 7, e6486. https://doi.org/10.7717/peerj.6486</t>
+  </si>
+  <si>
+    <t>Reeder, J. T., Xie, Z., Yang, Q., Seo, M.-H., Yan, Y., Deng, Y., Jinkins, K. R., Krishnan, S. R., Liu, C., McKay, S., Patnaude, E., Johnson, A., Zhao, Z., Kim, M. J., Xu, Y., Huang, I., Avila, R., Felicelli, C., Ray, E., … Rogers, J. A. (2022). Soft, bioresorbable coolers for reversible conduction block of peripheral nerves. Science, 377(6601), 109–115. https://doi.org/10.1126/science.abl8532</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -582,6 +585,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE477B7-AE68-42C6-B5B6-FE23B03766E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A3903B-1909-4DE2-AA94-C148F8C2B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Reeder, J. T., Xie, Z., Yang, Q., Seo, M.-H., Yan, Y., Deng, Y., Jinkins, K. R., Krishnan, S. R., Liu, C., McKay, S., Patnaude, E., Johnson, A., Zhao, Z., Kim, M. J., Xu, Y., Huang, I., Avila, R., Felicelli, C., Ray, E., … Rogers, J. A. (2022). Soft, bioresorbable coolers for reversible conduction block of peripheral nerves. Science, 377(6601), 109–115. https://doi.org/10.1126/science.abl8532</t>
+  </si>
+  <si>
+    <t>Hoeppli, M. E., Nahman-Averbuch, H., Hinkle, W. A., Leon, E., Peugh, J., Lopez-Sola, M., King, C. D., Goldschneider, K. R., &amp; Coghill, R. C. (2022). Dissociation between individual differences in self-reported pain intensity and underlying fMRI brain activation. Nature Communications, 13(1), 3569. https://doi.org/10.1038/s41467-022-31039-3</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,6 +596,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44749</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A3903B-1909-4DE2-AA94-C148F8C2B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9D381-6B66-406A-9761-77D502DE43AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Hoeppli, M. E., Nahman-Averbuch, H., Hinkle, W. A., Leon, E., Peugh, J., Lopez-Sola, M., King, C. D., Goldschneider, K. R., &amp; Coghill, R. C. (2022). Dissociation between individual differences in self-reported pain intensity and underlying fMRI brain activation. Nature Communications, 13(1), 3569. https://doi.org/10.1038/s41467-022-31039-3</t>
+  </si>
+  <si>
+    <t>Spisak, T., Kincses, B., Schlitt, F., Zunhammer, M., Schmidt-Wilcke, T., Kincses, Z. T., &amp; Bingel, U. (2020). Pain-free resting-state functional brain connectivity predicts individual pain sensitivity. Nature Communications, 11(1), 187. https://doi.org/10.1038/s41467-019-13785-z</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +607,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A9D381-6B66-406A-9761-77D502DE43AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AF75E-C13B-4A60-BAD4-3CACBA68E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Spisak, T., Kincses, B., Schlitt, F., Zunhammer, M., Schmidt-Wilcke, T., Kincses, Z. T., &amp; Bingel, U. (2020). Pain-free resting-state functional brain connectivity predicts individual pain sensitivity. Nature Communications, 11(1), 187. https://doi.org/10.1038/s41467-019-13785-z</t>
+  </si>
+  <si>
+    <t>Marek et al. 2022</t>
+  </si>
+  <si>
+    <t>Powers, J., Ioachim, G., &amp; Stroman, P. (2018). Ten Key Insights into the Use of Spinal Cord fMRI. Brain Sciences, 8(9), 173. https://doi.org/10.3390/brainsci8090173</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,6 +621,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44753</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44754</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AF75E-C13B-4A60-BAD4-3CACBA68E702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91BFBC8-933B-4CFB-A0BA-B223D04D1902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -97,10 +97,13 @@
     <t>Spisak, T., Kincses, B., Schlitt, F., Zunhammer, M., Schmidt-Wilcke, T., Kincses, Z. T., &amp; Bingel, U. (2020). Pain-free resting-state functional brain connectivity predicts individual pain sensitivity. Nature Communications, 11(1), 187. https://doi.org/10.1038/s41467-019-13785-z</t>
   </si>
   <si>
-    <t>Marek et al. 2022</t>
-  </si>
-  <si>
     <t>Powers, J., Ioachim, G., &amp; Stroman, P. (2018). Ten Key Insights into the Use of Spinal Cord fMRI. Brain Sciences, 8(9), 173. https://doi.org/10.3390/brainsci8090173</t>
+  </si>
+  <si>
+    <t>Marek, S., Tervo-Clemmens, B., Calabro, F. J., Montez, D. F., Kay, B. P., Hatoum, A. S., Donohue, M. R., Foran, W., Miller, R. L., Hendrickson, T. J., Malone, S. M., Kandala, S., Feczko, E., Miranda-Dominguez, O., Graham, A. M., Earl, E. A., Perrone, A. J., Cordova, M., Doyle, O., … Dosenbach, N. U. F. (2022). Reproducible brain-wide association studies require thousands of individuals. Nature, 603(7902), 654–660. https://doi.org/10.1038/s41586-022-04492-9</t>
+  </si>
+  <si>
+    <t>Schaefer, M., Kühnel, A., &amp; Gärtner, M. (2022). Sensory processing sensitivity and somatosensory brain activation when feeling touch. Scientific Reports, 12(1), 12024. https://doi.org/10.1038/s41598-022-15497-9</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +629,7 @@
         <v>44753</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,7 +637,15 @@
         <v>44754</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91BFBC8-933B-4CFB-A0BA-B223D04D1902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01824999-7CD6-4720-B5FB-70E09858D422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="5745" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Schaefer, M., Kühnel, A., &amp; Gärtner, M. (2022). Sensory processing sensitivity and somatosensory brain activation when feeling touch. Scientific Reports, 12(1), 12024. https://doi.org/10.1038/s41598-022-15497-9</t>
+  </si>
+  <si>
+    <t>Fujii, K., Koshidaka, Y., Adachi, M., &amp; Takao, K. (2019). Effects of chronic fentanyl administration on behavioral characteristics of mice. Neuropsychopharmacology Reports, 39(1), 17–35. https://doi.org/10.1002/npr2.12040</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,6 +651,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44757</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01824999-7CD6-4720-B5FB-70E09858D422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428AE09E-3B2D-4287-A20F-3FBD928698ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Fujii, K., Koshidaka, Y., Adachi, M., &amp; Takao, K. (2019). Effects of chronic fentanyl administration on behavioral characteristics of mice. Neuropsychopharmacology Reports, 39(1), 17–35. https://doi.org/10.1002/npr2.12040</t>
+  </si>
+  <si>
+    <t>Cabral, J., Castaldo, F., Vohryzek, J., Litvak, V., Bick, C., Lambiotte, R., Friston, K., Kringelbach, M. L., &amp; Deco, G. (2022). Metastable oscillatory modes emerge from synchronization in the brain spacetime connectome. Communications Physics, 5(1), 184. https://doi.org/10.1038/s42005-022-00950-y</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +662,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428AE09E-3B2D-4287-A20F-3FBD928698ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E85C49-0A73-4F99-BAE2-75C006E52415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-22710" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Cabral, J., Castaldo, F., Vohryzek, J., Litvak, V., Bick, C., Lambiotte, R., Friston, K., Kringelbach, M. L., &amp; Deco, G. (2022). Metastable oscillatory modes emerge from synchronization in the brain spacetime connectome. Communications Physics, 5(1), 184. https://doi.org/10.1038/s42005-022-00950-y</t>
+  </si>
+  <si>
+    <t>Mascio, G., Notartomaso, S., Martinello, K., Liberatore, F., Bucci, D., Imbriglio, T., Cannella, M., Antenucci, N., Scarselli, P., Lattanzi, R., Bruno, V., Nicoletti, F., Fucile, S., &amp; Battaglia, G. (2022). A Progressive Build-up of Perineuronal Nets in the Somatosensory Cortex Is Associated with the Development of Chronic Pain in Mice. The Journal of Neuroscience, 42(14), 3037–3048. https://doi.org/10.1523/JNEUROSCI.1714-21.2022</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +673,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44761</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E85C49-0A73-4F99-BAE2-75C006E52415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF98307D-D637-4CB7-8FD1-E84BF86939FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22710" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Mascio, G., Notartomaso, S., Martinello, K., Liberatore, F., Bucci, D., Imbriglio, T., Cannella, M., Antenucci, N., Scarselli, P., Lattanzi, R., Bruno, V., Nicoletti, F., Fucile, S., &amp; Battaglia, G. (2022). A Progressive Build-up of Perineuronal Nets in the Somatosensory Cortex Is Associated with the Development of Chronic Pain in Mice. The Journal of Neuroscience, 42(14), 3037–3048. https://doi.org/10.1523/JNEUROSCI.1714-21.2022</t>
+  </si>
+  <si>
+    <t>Fauchon, C., Kim, J. A., El-Sayed, R., Osborne, N. R., Rogachov, A., Cheng, J. C., Hemington, K. S., Bosma, R. L., Dunkley, B. T., Oh, J., Bhatia, A., Inman, R. D., &amp; Davis, K. D. (2022). Exploring sex differences in alpha brain activity as a potential neuromarker associated with neuropathic pain. Pain, 163(7), 1291–1302. https://doi.org/10.1097/j.pain.0000000000002491</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,6 +684,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF98307D-D637-4CB7-8FD1-E84BF86939FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CA34CE-E53B-4EE4-8337-3363F80BF222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-22365" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Fauchon, C., Kim, J. A., El-Sayed, R., Osborne, N. R., Rogachov, A., Cheng, J. C., Hemington, K. S., Bosma, R. L., Dunkley, B. T., Oh, J., Bhatia, A., Inman, R. D., &amp; Davis, K. D. (2022). Exploring sex differences in alpha brain activity as a potential neuromarker associated with neuropathic pain. Pain, 163(7), 1291–1302. https://doi.org/10.1097/j.pain.0000000000002491</t>
+  </si>
+  <si>
+    <t>Büchel, C. (2022). Pain persistence and the pain modulatory system: An evolutionary mismatch perspective. Pain, 163(7), 1274–1276. https://doi.org/10.1097/j.pain.0000000000002522</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,6 +695,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44764</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CA34CE-E53B-4EE4-8337-3363F80BF222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7928856-F5A4-4520-B2B7-20B81ADF9F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22365" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Büchel, C. (2022). Pain persistence and the pain modulatory system: An evolutionary mismatch perspective. Pain, 163(7), 1274–1276. https://doi.org/10.1097/j.pain.0000000000002522</t>
+  </si>
+  <si>
+    <t>McLain, N. J., Yani, M. S., &amp; Kutch, J. J. (2022). Analytic consistency and neural correlates of peak alpha frequency in the study of pain. Journal of Neuroscience Methods, 368, 109460. https://doi.org/10.1016/j.jneumeth.2021.109460</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +714,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7928856-F5A4-4520-B2B7-20B81ADF9F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDE7BF-0927-47F4-860B-F19C06B8B53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>McLain, N. J., Yani, M. S., &amp; Kutch, J. J. (2022). Analytic consistency and neural correlates of peak alpha frequency in the study of pain. Journal of Neuroscience Methods, 368, 109460. https://doi.org/10.1016/j.jneumeth.2021.109460</t>
+  </si>
+  <si>
+    <t>Baliki, M. N., Petre, B., Torbey, S., Herrmann, K. M., Huang, L., Schnitzer, T. J., Fields, H. L., &amp; Apkarian, A. V. (2012). Corticostriatal functional connectivity predicts transition to chronic back pain. Nature Neuroscience, 15(8), 1117–1119. https://doi.org/10.1038/nn.3153</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +726,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEDE7BF-0927-47F4-860B-F19C06B8B53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E712153-705B-4FF4-BE35-C200F275F159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Baliki, M. N., Petre, B., Torbey, S., Herrmann, K. M., Huang, L., Schnitzer, T. J., Fields, H. L., &amp; Apkarian, A. V. (2012). Corticostriatal functional connectivity predicts transition to chronic back pain. Nature Neuroscience, 15(8), 1117–1119. https://doi.org/10.1038/nn.3153</t>
+  </si>
+  <si>
+    <t>Löffler, M., Levine, S. M., Usai, K., Desch, S., Kandić, M., Nees, F., &amp; Flor, H. (2022). Corticostriatal circuits in the transition to chronic back pain: The predictive role of reward learning. Cell Reports Medicine, 3(7), 100677. https://doi.org/10.1016/j.xcrm.2022.100677</t>
   </si>
 </sst>
 </file>
@@ -481,11 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +737,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E712153-705B-4FF4-BE35-C200F275F159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E2053-6457-44EC-A810-8EB11D3B7188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>date</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Löffler, M., Levine, S. M., Usai, K., Desch, S., Kandić, M., Nees, F., &amp; Flor, H. (2022). Corticostriatal circuits in the transition to chronic back pain: The predictive role of reward learning. Cell Reports Medicine, 3(7), 100677. https://doi.org/10.1016/j.xcrm.2022.100677</t>
+  </si>
+  <si>
+    <t>paper under review</t>
   </si>
 </sst>
 </file>
@@ -484,11 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,6 +748,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E2053-6457-44EC-A810-8EB11D3B7188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CBF82F-5A55-4E2E-AA46-5173814F5099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>date</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>paper under review</t>
+  </si>
+  <si>
+    <t>Barry, R. J., &amp; De Blasio, F. M. (2021). Characterizing pink and white noise in the human electroencephalogram. Journal of Neural Engineering, 18(3), 034001. https://doi.org/10.1088/1741-2552/abe399</t>
   </si>
 </sst>
 </file>
@@ -487,11 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,10 +753,18 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44767</v>
+        <v>44770</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/lit-tracker.xlsx
+++ b/lit-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\lit-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CBF82F-5A55-4E2E-AA46-5173814F5099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF817A76-7AE0-4E5D-B8FE-A05F0ADDE6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1378148F-DC57-4898-9D4E-951576CEEAE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -134,14 +134,69 @@
   </si>
   <si>
     <t>Barry, R. J., &amp; De Blasio, F. M. (2021). Characterizing pink and white noise in the human electroencephalogram. Journal of Neural Engineering, 18(3), 034001. https://doi.org/10.1088/1741-2552/abe399</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Donoghue, T., Haller, M., Peterson, E. J., Varma, P., Sebastian, P., Gao, R., Noto, T., Lara, A. H., Wallis, J. D., Knight, R. T., Shestyuk, A., &amp; Voytek, B. (2020). Parameterizing neural power spectra into periodic and aperiodic components. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nature Neuroscience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(12), 1655–1665. https://doi.org/10.1038/s41593-020-00744-x</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -169,12 +224,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,11 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BD08C1-E313-4C91-B543-EFCA787E14B8}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +825,16 @@
         <v>32</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>